--- a/Selenium-Demo/target/test-classes/Data.xlsx
+++ b/Selenium-Demo/target/test-classes/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11340" windowHeight="1875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="11340" windowHeight="1872"/>
   </bookViews>
   <sheets>
     <sheet name="FormDetailSheet" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>TikTok</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>FormTitle</t>
   </si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>Madhavan</t>
+  </si>
+  <si>
+    <t>Selenium Upskill</t>
+  </si>
+  <si>
+    <t>Creating a simple google form</t>
   </si>
 </sst>
 </file>
@@ -132,6 +135,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -179,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,30 +431,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -461,64 +467,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
